--- a/model/excel/schaefer.xlsx
+++ b/model/excel/schaefer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PacificCommunity\ofp-sam\yft-2024\single-region\model\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ofp-sam\yft-2024\single-region\model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB09E6B-691B-4D2A-B64D-44C9687D02C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE79F4-4C41-4D9E-8691-13E2B96A342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{90B92577-4B9B-4E6D-801A-4E1771C63E70}"/>
   </bookViews>
@@ -508,214 +508,214 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>19369.96968975884</c:v>
+                  <c:v>11025.641611365754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19342.96968975884</c:v>
+                  <c:v>10998.641611365754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19308.215099849534</c:v>
+                  <c:v>10967.159819275543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19275.058492491084</c:v>
+                  <c:v>10940.918210855149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19246.421024447558</c:v>
+                  <c:v>10922.021504437354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19219.091421952962</c:v>
+                  <c:v>10906.240604900815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19172.006307668664</c:v>
+                  <c:v>10872.053432411853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19119.05691853807</c:v>
+                  <c:v>10835.459226027589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19066.496620183174</c:v>
+                  <c:v>10802.812363659219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19007.294632333585</c:v>
+                  <c:v>10766.436924291167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18944.733180556614</c:v>
+                  <c:v>10729.896753929634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18881.943938596924</c:v>
+                  <c:v>10696.177741094942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18833.918231404285</c:v>
+                  <c:v>10679.794406889183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18794.993582385905</c:v>
+                  <c:v>10672.99107387316</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18757.763761959599</c:v>
+                  <c:v>10667.25671045439</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18698.148214125173</c:v>
+                  <c:v>10638.422261557937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18673.103808775857</c:v>
+                  <c:v>10646.097742076792</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18641.134480579491</c:v>
+                  <c:v>10644.575189399562</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18604.533148095576</c:v>
+                  <c:v>10637.290428045004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18536.492033915176</c:v>
+                  <c:v>10598.142419989428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18470.334354327311</c:v>
+                  <c:v>10564.075620904965</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18398.959121833672</c:v>
+                  <c:v>10527.262772903718</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18309.562366454833</c:v>
+                  <c:v>10475.087685860646</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18223.861850045654</c:v>
+                  <c:v>10430.832392665356</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18136.668962275613</c:v>
+                  <c:v>10388.229797389868</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18036.00883543053</c:v>
+                  <c:v>10334.975157394078</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17902.382024324324</c:v>
+                  <c:v>10252.578000844178</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17768.034803186627</c:v>
+                  <c:v>10176.16811583492</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17602.909784091386</c:v>
+                  <c:v>10074.689842743664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17441.085406787315</c:v>
+                  <c:v>9984.4549484516519</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17280.309561144248</c:v>
+                  <c:v>9901.6221222720415</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17115.419372790395</c:v>
+                  <c:v>9819.9558956500441</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16903.437405066696</c:v>
+                  <c:v>9696.0946060807655</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16701.860504737568</c:v>
+                  <c:v>9591.2335971392949</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16491.126402293452</c:v>
+                  <c:v>9483.5535209553454</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16300.338753391872</c:v>
+                  <c:v>9402.0605213739273</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16076.657383297814</c:v>
+                  <c:v>9291.313035188261</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15865.913997336193</c:v>
+                  <c:v>9199.4855990416654</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15599.488974404156</c:v>
+                  <c:v>9056.087934603247</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15288.748562803103</c:v>
+                  <c:v>8876.4641919248115</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14955.543285811664</c:v>
+                  <c:v>8684.7164926413225</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14632.978521872903</c:v>
+                  <c:v>8514.0354687867657</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14362.273924577443</c:v>
+                  <c:v>8403.3851519292293</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14069.782802814043</c:v>
+                  <c:v>8274.6537121276106</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13776.612398574742</c:v>
+                  <c:v>8149.993115527046</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13502.367949216181</c:v>
+                  <c:v>8048.5726695453141</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13193.295820881585</c:v>
+                  <c:v>7915.134468037777</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12823.622950618468</c:v>
+                  <c:v>7725.721636878905</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12527.80964562454</c:v>
+                  <c:v>7617.6092050946982</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12199.215739500714</c:v>
+                  <c:v>7479.598932672302</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11871.819530806522</c:v>
+                  <c:v>7347.1380741879502</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11557.093570194025</c:v>
+                  <c:v>7231.3377618145796</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11167.413898068056</c:v>
+                  <c:v>7043.7970709068886</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10758.851434810453</c:v>
+                  <c:v>6843.5284039217595</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10410.779520078026</c:v>
+                  <c:v>6709.9793669627361</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10084.201380447192</c:v>
+                  <c:v>6601.5667228585162</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9729.4993725799777</c:v>
+                  <c:v>6467.9246001685569</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9309.1726909665867</c:v>
+                  <c:v>6272.4382878222441</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8961.5139385076418</c:v>
+                  <c:v>6155.0520120122073</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8599.9438298164969</c:v>
+                  <c:v>6027.1694337304953</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8271.8143863640908</c:v>
+                  <c:v>5936.5372071391539</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7840.7301540072367</c:v>
+                  <c:v>5746.1985179541589</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7450.297331095584</c:v>
+                  <c:v>5601.7627378884654</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7006.0668197028872</c:v>
+                  <c:v>5408.0352704157867</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6590.6311476643223</c:v>
+                  <c:v>5248.2611038387959</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6114.4760653906014</c:v>
+                  <c:v>5032.5890900045897</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5588.7532626574266</c:v>
+                  <c:v>4772.4731287759687</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5065.418918651515</c:v>
+                  <c:v>4519.5266192126956</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4533.207506911147</c:v>
+                  <c:v>4261.9081797741983</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3957.5948892939177</c:v>
+                  <c:v>3964.4933758199004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,214 +2222,214 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>5.7267062832186291</c:v>
+                  <c:v>5.1714883349074698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7187237684226124</c:v>
+                  <c:v>5.1588242025182431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7084486192307402</c:v>
+                  <c:v>5.1440579216708162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6986459114964969</c:v>
+                  <c:v>5.1317495067396264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.690179281408426</c:v>
+                  <c:v>5.1228861588953567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6820993200646344</c:v>
+                  <c:v>5.1154842551564004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6681786674184655</c:v>
+                  <c:v>5.0994490374373802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6525242495601304</c:v>
+                  <c:v>5.0822848198696393</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6369848658823152</c:v>
+                  <c:v>5.0669720721983094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6194818753651683</c:v>
+                  <c:v>5.0499104655363354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.6009856637181317</c:v>
+                  <c:v>5.0327715931295449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5824221062005783</c:v>
+                  <c:v>5.0169559619231539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5682233684874518</c:v>
+                  <c:v>5.0092714910580174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5567153467571186</c:v>
+                  <c:v>5.0060804425393908</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5457083988902278</c:v>
+                  <c:v>5.003390785594827</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.528083139902785</c:v>
+                  <c:v>4.9898662197357497</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5206787941154376</c:v>
+                  <c:v>4.9934663420113692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5112271039174301</c:v>
+                  <c:v>4.9927522009493686</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5004059676912522</c:v>
+                  <c:v>4.9893353423487001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4802897009993066</c:v>
+                  <c:v>4.9709732846897996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4607302692889252</c:v>
+                  <c:v>4.954994527145991</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.439628274864865</c:v>
+                  <c:v>4.9377277574899807</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.4131982406971799</c:v>
+                  <c:v>4.9132554534258004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3878609947615281</c:v>
+                  <c:v>4.8924978648350894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3620825311788689</c:v>
+                  <c:v>4.8725154608834806</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.3323224959229485</c:v>
+                  <c:v>4.8475368012076556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.2928159034488793</c:v>
+                  <c:v>4.8088890790208492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.2530963226883074</c:v>
+                  <c:v>4.7730496382948191</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2042773260912565</c:v>
+                  <c:v>4.7254520721815689</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1564341599362198</c:v>
+                  <c:v>4.6831281222763126</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.1089009907996283</c:v>
+                  <c:v>4.6442760527610396</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.0601514216050854</c:v>
+                  <c:v>4.6059711673658708</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9974792292405201</c:v>
+                  <c:v>4.5478750277730677</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9378832814845008</c:v>
+                  <c:v>4.4986908166729691</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.8755800188628138</c:v>
+                  <c:v>4.4481843448035043</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.8191738992237703</c:v>
+                  <c:v>4.4099607101555689</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.7530427938026882</c:v>
+                  <c:v>4.3580154943470752</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.690736786521156</c:v>
+                  <c:v>4.3149445755202702</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6119685758698896</c:v>
+                  <c:v>4.2476850567516031</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5200985783393026</c:v>
+                  <c:v>4.1634339879542663</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4215868726468903</c:v>
+                  <c:v>4.0734962750262769</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3262210207648559</c:v>
+                  <c:v>3.9934397164180231</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2461875595329719</c:v>
+                  <c:v>3.9415400770997375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1597129407485278</c:v>
+                  <c:v>3.881159632792202</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.0730374929857671</c:v>
+                  <c:v>3.8226885846785161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.9919574791068682</c:v>
+                  <c:v>3.7751181419049211</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9005807073488157</c:v>
+                  <c:v>3.7125300289541157</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.7912874052539474</c:v>
+                  <c:v>3.6236874671017385</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7038305873290307</c:v>
+                  <c:v>3.572978202322612</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.6066822274210861</c:v>
+                  <c:v>3.5082455963585208</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.5098879651965937</c:v>
+                  <c:v>3.4461158982756896</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.416839645297336</c:v>
+                  <c:v>3.3918006950679058</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3016313583176085</c:v>
+                  <c:v>3.3038362455115347</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.180840398760163</c:v>
+                  <c:v>3.2099018413591787</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0779333910035112</c:v>
+                  <c:v>3.1472617419331494</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.98138098983096</c:v>
+                  <c:v>3.0964116649849291</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.8765138036836633</c:v>
+                  <c:v>3.0337279044470438</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.7522447683081199</c:v>
+                  <c:v>2.9420366251938801</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.649459911438921</c:v>
+                  <c:v>2.8869775386184515</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.5425621802380105</c:v>
+                  <c:v>2.8269952459652945</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.4455511381132808</c:v>
+                  <c:v>2.7844849305474009</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.3181016468866784</c:v>
+                  <c:v>2.6952081024499703</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.2026706918591601</c:v>
+                  <c:v>2.6274616639131865</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0713345203764026</c:v>
+                  <c:v>2.5365953566723127</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.9485115056045079</c:v>
+                  <c:v>2.4616545715645586</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.8077368763656663</c:v>
+                  <c:v>2.3604953517183551</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6523076152019198</c:v>
+                  <c:v>2.2384900565498294</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.4975844987466937</c:v>
+                  <c:v>2.1198475349016048</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3402368887901515</c:v>
+                  <c:v>1.9990136821995645</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1700577689048302</c:v>
+                  <c:v>1.8595136654664866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4201,13 +4201,13 @@
       </c>
       <c r="B1">
         <f>EXP(E1)</f>
-        <v>4.6190685326826693E-2</v>
+        <v>0.1677518305987179</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4">
-        <v>-3.0749771175241953</v>
+        <v>-1.7852695905298712</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -4216,13 +4216,13 @@
       </c>
       <c r="B2">
         <f>EXP(E2)</f>
-        <v>19369.96968975884</v>
+        <v>11025.641611365754</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="4">
-        <v>9.8714791915964533</v>
+        <v>9.3079788946639681</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -4231,13 +4231,13 @@
       </c>
       <c r="B3">
         <f>EXP(E3)</f>
-        <v>2.9564869614878204E-4</v>
+        <v>4.6904194034172621E-4</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="4">
-        <v>-8.126338645824589</v>
+        <v>-7.6648183684805113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B5" s="3">
         <f>SUM(F11:F80)</f>
-        <v>89.021673410803785</v>
+        <v>4.1863345000472263</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B11" s="2">
         <f>K</f>
-        <v>19369.96968975884</v>
+        <v>11025.641611365754</v>
       </c>
       <c r="C11" s="2">
         <v>27</v>
@@ -4284,12 +4284,12 @@
         <v>7.8</v>
       </c>
       <c r="E11" s="1">
-        <f>q*B11</f>
-        <v>5.7267062832186291</v>
+        <f t="shared" ref="E11:E42" si="0">q*B11</f>
+        <v>5.1714883349074698</v>
       </c>
       <c r="F11" s="3">
-        <f>(D11-E11)^2</f>
-        <v>4.2985468360451105</v>
+        <f>(LN(D11)-LN(E11))^2</f>
+        <v>0.16889075792862471</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -4297,8 +4297,8 @@
         <v>1953</v>
       </c>
       <c r="B12" s="2">
-        <f>MAX(B11 + rr*B11*(1-B11/K) - C11, 1)</f>
-        <v>19342.96968975884</v>
+        <f t="shared" ref="B12:B43" si="1">MAX(B11 + rr*B11*(1-B11/K) - C11, 1)</f>
+        <v>10998.641611365754</v>
       </c>
       <c r="C12" s="2">
         <v>36</v>
@@ -4307,12 +4307,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E12" s="1">
-        <f>q*B12</f>
-        <v>5.7187237684226124</v>
+        <f t="shared" si="0"/>
+        <v>5.1588242025182431</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ref="F12:F75" si="0">(D12-E12)^2</f>
-        <v>6.6629869837063627</v>
+        <f t="shared" ref="F12:F75" si="2">(LN(D12)-LN(E12))^2</f>
+        <v>0.22614478657566367</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -4320,8 +4320,8 @@
         <v>1954</v>
       </c>
       <c r="B13" s="2">
-        <f>MAX(B12 + rr*B12*(1-B12/K) - C12, 1)</f>
-        <v>19308.215099849534</v>
+        <f t="shared" si="1"/>
+        <v>10967.159819275543</v>
       </c>
       <c r="C13" s="2">
         <v>36</v>
@@ -4330,12 +4330,12 @@
         <v>7.2</v>
       </c>
       <c r="E13" s="1">
-        <f>q*B13</f>
-        <v>5.7084486192307402</v>
+        <f t="shared" si="0"/>
+        <v>5.1440579216708162</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2247255214746859</v>
+        <f t="shared" si="2"/>
+        <v>0.113056516574165</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -4343,8 +4343,8 @@
         <v>1955</v>
       </c>
       <c r="B14" s="2">
-        <f>MAX(B13 + rr*B13*(1-B13/K) - C13, 1)</f>
-        <v>19275.058492491084</v>
+        <f t="shared" si="1"/>
+        <v>10940.918210855149</v>
       </c>
       <c r="C14" s="2">
         <v>33</v>
@@ -4353,12 +4353,12 @@
         <v>7.2</v>
       </c>
       <c r="E14" s="1">
-        <f>q*B14</f>
-        <v>5.6986459114964969</v>
+        <f t="shared" si="0"/>
+        <v>5.1317495067396264</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2540640990661851</v>
+        <f t="shared" si="2"/>
+        <v>0.11467325044704652</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -4366,8 +4366,8 @@
         <v>1956</v>
       </c>
       <c r="B15" s="2">
-        <f>MAX(B14 + rr*B14*(1-B14/K) - C14, 1)</f>
-        <v>19246.421024447558</v>
+        <f t="shared" si="1"/>
+        <v>10922.021504437354</v>
       </c>
       <c r="C15" s="2">
         <v>33</v>
@@ -4376,12 +4376,12 @@
         <v>7.5</v>
       </c>
       <c r="E15" s="1">
-        <f>q*B15</f>
-        <v>5.690179281408426</v>
+        <f t="shared" si="0"/>
+        <v>5.1228861588953567</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2754510334433213</v>
+        <f t="shared" si="2"/>
+        <v>0.14530203273947023</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4389,8 +4389,8 @@
         <v>1957</v>
       </c>
       <c r="B16" s="2">
-        <f>MAX(B15 + rr*B15*(1-B15/K) - C15, 1)</f>
-        <v>19219.091421952962</v>
+        <f t="shared" si="1"/>
+        <v>10906.240604900815</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -4399,12 +4399,12 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E16" s="1">
-        <f>q*B16</f>
-        <v>5.6820993200646344</v>
+        <f t="shared" si="0"/>
+        <v>5.1154842551564004</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>9.1077245139543379</v>
+        <f t="shared" si="2"/>
+        <v>0.28201511914127475</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4412,8 +4412,8 @@
         <v>1958</v>
       </c>
       <c r="B17" s="2">
-        <f>MAX(B16 + rr*B16*(1-B16/K) - C16, 1)</f>
-        <v>19172.006307668664</v>
+        <f t="shared" si="1"/>
+        <v>10872.053432411853</v>
       </c>
       <c r="C17" s="2">
         <v>62</v>
@@ -4422,12 +4422,12 @@
         <v>7.8</v>
       </c>
       <c r="E17" s="1">
-        <f>q*B17</f>
-        <v>5.6681786674184655</v>
+        <f t="shared" si="0"/>
+        <v>5.0994490374373802</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5446621940497085</v>
+        <f t="shared" si="2"/>
+        <v>0.18061754700161359</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -4435,8 +4435,8 @@
         <v>1959</v>
       </c>
       <c r="B18" s="2">
-        <f>MAX(B17 + rr*B17*(1-B17/K) - C17, 1)</f>
-        <v>19119.05691853807</v>
+        <f t="shared" si="1"/>
+        <v>10835.459226027589</v>
       </c>
       <c r="C18" s="2">
         <v>64</v>
@@ -4445,12 +4445,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="1">
-        <f>q*B18</f>
-        <v>5.6525242495601304</v>
+        <f t="shared" si="0"/>
+        <v>5.0822848198696393</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>5.5106423989032285</v>
+        <f t="shared" si="2"/>
+        <v>0.20582609907820484</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -4458,8 +4458,8 @@
         <v>1960</v>
       </c>
       <c r="B19" s="2">
-        <f>MAX(B18 + rr*B18*(1-B18/K) - C18, 1)</f>
-        <v>19066.496620183174</v>
+        <f t="shared" si="1"/>
+        <v>10802.812363659219</v>
       </c>
       <c r="C19" s="2">
         <v>73</v>
@@ -4468,12 +4468,12 @@
         <v>8.4</v>
       </c>
       <c r="E19" s="1">
-        <f>q*B19</f>
-        <v>5.6369848658823152</v>
+        <f t="shared" si="0"/>
+        <v>5.0669720721983094</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>7.6342526313633696</v>
+        <f t="shared" si="2"/>
+        <v>0.25551841241311091</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4481,8 +4481,8 @@
         <v>1961</v>
       </c>
       <c r="B20" s="2">
-        <f>MAX(B19 + rr*B19*(1-B19/K) - C19, 1)</f>
-        <v>19007.294632333585</v>
+        <f t="shared" si="1"/>
+        <v>10766.436924291167</v>
       </c>
       <c r="C20" s="2">
         <v>79</v>
@@ -4491,12 +4491,12 @@
         <v>7</v>
       </c>
       <c r="E20" s="1">
-        <f>q*B20</f>
-        <v>5.6194818753651683</v>
+        <f t="shared" si="0"/>
+        <v>5.0499104655363354</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9058302924452728</v>
+        <f t="shared" si="2"/>
+        <v>0.10662813356682831</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -4504,8 +4504,8 @@
         <v>1962</v>
       </c>
       <c r="B21" s="2">
-        <f>MAX(B20 + rr*B20*(1-B20/K) - C20, 1)</f>
-        <v>18944.733180556614</v>
+        <f t="shared" si="1"/>
+        <v>10729.896753929634</v>
       </c>
       <c r="C21" s="2">
         <v>82</v>
@@ -4514,12 +4514,12 @@
         <v>6.2</v>
       </c>
       <c r="E21" s="1">
-        <f>q*B21</f>
-        <v>5.6009856637181317</v>
+        <f t="shared" si="0"/>
+        <v>5.0327715931295449</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.35881817507120745</v>
+        <f t="shared" si="2"/>
+        <v>4.3504968611528229E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -4527,8 +4527,8 @@
         <v>1963</v>
       </c>
       <c r="B22" s="2">
-        <f>MAX(B21 + rr*B21*(1-B21/K) - C21, 1)</f>
-        <v>18881.943938596924</v>
+        <f t="shared" si="1"/>
+        <v>10696.177741094942</v>
       </c>
       <c r="C22" s="2">
         <v>70</v>
@@ -4537,12 +4537,12 @@
         <v>5.6</v>
       </c>
       <c r="E22" s="1">
-        <f>q*B22</f>
-        <v>5.5824221062005783</v>
+        <f t="shared" si="0"/>
+        <v>5.0169559619231539</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0898235042373443E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.2087513833488687E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -4550,8 +4550,8 @@
         <v>1964</v>
       </c>
       <c r="B23" s="2">
-        <f>MAX(B22 + rr*B22*(1-B22/K) - C22, 1)</f>
-        <v>18833.918231404285</v>
+        <f t="shared" si="1"/>
+        <v>10679.794406889183</v>
       </c>
       <c r="C23" s="2">
         <v>63</v>
@@ -4560,12 +4560,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="1">
-        <f>q*B23</f>
-        <v>5.5682233684874518</v>
+        <f t="shared" si="0"/>
+        <v>5.0092714910580174</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.18643105952032282</v>
+        <f t="shared" si="2"/>
+        <v>3.256905117972006E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -4573,8 +4573,8 @@
         <v>1965</v>
       </c>
       <c r="B24" s="2">
-        <f>MAX(B23 + rr*B23*(1-B23/K) - C23, 1)</f>
-        <v>18794.993582385905</v>
+        <f t="shared" si="1"/>
+        <v>10672.99107387316</v>
       </c>
       <c r="C24" s="2">
         <v>63</v>
@@ -4583,12 +4583,12 @@
         <v>5.9</v>
       </c>
       <c r="E24" s="1">
-        <f>q*B24</f>
-        <v>5.5567153467571186</v>
+        <f t="shared" si="0"/>
+        <v>5.0060804425393908</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.11784435315208554</v>
+        <f t="shared" si="2"/>
+        <v>2.6994190582610537E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -4596,8 +4596,8 @@
         <v>1966</v>
       </c>
       <c r="B25" s="2">
-        <f>MAX(B24 + rr*B24*(1-B24/K) - C24, 1)</f>
-        <v>18757.763761959599</v>
+        <f t="shared" si="1"/>
+        <v>10667.25671045439</v>
       </c>
       <c r="C25" s="2">
         <v>87</v>
@@ -4606,12 +4606,12 @@
         <v>6.3</v>
       </c>
       <c r="E25" s="1">
-        <f>q*B25</f>
-        <v>5.5457083988902278</v>
+        <f t="shared" si="0"/>
+        <v>5.003390785594827</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.56895581950474339</v>
+        <f t="shared" si="2"/>
+        <v>5.3099733273928647E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -4619,8 +4619,8 @@
         <v>1967</v>
       </c>
       <c r="B26" s="2">
-        <f>MAX(B25 + rr*B25*(1-B25/K) - C25, 1)</f>
-        <v>18698.148214125173</v>
+        <f t="shared" si="1"/>
+        <v>10638.422261557937</v>
       </c>
       <c r="C26" s="2">
         <v>55</v>
@@ -4629,12 +4629,12 @@
         <v>4.7</v>
       </c>
       <c r="E26" s="1">
-        <f>q*B26</f>
-        <v>5.528083139902785</v>
+        <f t="shared" si="0"/>
+        <v>4.9898662197357497</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6857216865912551</v>
+        <f t="shared" si="2"/>
+        <v>3.5816144562165167E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -4642,8 +4642,8 @@
         <v>1968</v>
       </c>
       <c r="B27" s="2">
-        <f>MAX(B26 + rr*B26*(1-B26/K) - C26, 1)</f>
-        <v>18673.103808775857</v>
+        <f t="shared" si="1"/>
+        <v>10646.097742076792</v>
       </c>
       <c r="C27" s="2">
         <v>63</v>
@@ -4652,12 +4652,12 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E27" s="1">
-        <f>q*B27</f>
-        <v>5.5206787941154376</v>
+        <f t="shared" si="0"/>
+        <v>4.9934663420113692</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.17697064781841904</v>
+        <f t="shared" si="2"/>
+        <v>4.4564111030603599E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -4665,8 +4665,8 @@
         <v>1969</v>
       </c>
       <c r="B28" s="2">
-        <f>MAX(B27 + rr*B27*(1-B27/K) - C27, 1)</f>
-        <v>18641.134480579491</v>
+        <f t="shared" si="1"/>
+        <v>10644.575189399562</v>
       </c>
       <c r="C28" s="2">
         <v>69</v>
@@ -4675,12 +4675,12 @@
         <v>5.2</v>
       </c>
       <c r="E28" s="1">
-        <f>q*B28</f>
-        <v>5.5112271039174301</v>
+        <f t="shared" si="0"/>
+        <v>4.9927522009493686</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>9.6862310212830718E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6541566440366911E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -4688,8 +4688,8 @@
         <v>1970</v>
       </c>
       <c r="B29" s="2">
-        <f>MAX(B28 + rr*B28*(1-B28/K) - C28, 1)</f>
-        <v>18604.533148095576</v>
+        <f t="shared" si="1"/>
+        <v>10637.290428045004</v>
       </c>
       <c r="C29" s="2">
         <v>102</v>
@@ -4698,12 +4698,12 @@
         <v>5.4</v>
       </c>
       <c r="E29" s="1">
-        <f>q*B29</f>
-        <v>5.5004059676912522</v>
+        <f t="shared" si="0"/>
+        <v>4.9893353423487001</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0081358348016715E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.2562168596970473E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -4711,8 +4711,8 @@
         <v>1971</v>
       </c>
       <c r="B30" s="2">
-        <f>MAX(B29 + rr*B29*(1-B29/K) - C29, 1)</f>
-        <v>18536.492033915176</v>
+        <f t="shared" si="1"/>
+        <v>10598.142419989428</v>
       </c>
       <c r="C30" s="2">
         <v>103</v>
@@ -4721,12 +4721,12 @@
         <v>5.6</v>
       </c>
       <c r="E30" s="1">
-        <f>q*B30</f>
-        <v>5.4802897009993066</v>
+        <f t="shared" si="0"/>
+        <v>4.9709732846897996</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4330555686835339E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4196947664747864E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -4734,8 +4734,8 @@
         <v>1972</v>
       </c>
       <c r="B31" s="2">
-        <f>MAX(B30 + rr*B30*(1-B30/K) - C30, 1)</f>
-        <v>18470.334354327311</v>
+        <f t="shared" si="1"/>
+        <v>10564.075620904965</v>
       </c>
       <c r="C31" s="2">
         <v>111</v>
@@ -4744,12 +4744,12 @@
         <v>5</v>
       </c>
       <c r="E31" s="1">
-        <f>q*B31</f>
-        <v>5.4607302692889252</v>
+        <f t="shared" si="0"/>
+        <v>4.954994527145991</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.21227238103904558</v>
+        <f t="shared" si="2"/>
+        <v>8.1755036307480289E-5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -4757,8 +4757,8 @@
         <v>1973</v>
       </c>
       <c r="B32" s="2">
-        <f>MAX(B31 + rr*B31*(1-B31/K) - C31, 1)</f>
-        <v>18398.959121833672</v>
+        <f t="shared" si="1"/>
+        <v>10527.262772903718</v>
       </c>
       <c r="C32" s="2">
         <v>132</v>
@@ -4767,12 +4767,12 @@
         <v>4.5</v>
       </c>
       <c r="E32" s="1">
-        <f>q*B32</f>
-        <v>5.439628274864865</v>
+        <f t="shared" si="0"/>
+        <v>4.9377277574899807</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.88290129492552227</v>
+        <f t="shared" si="2"/>
+        <v>8.6170116824704057E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -4780,8 +4780,8 @@
         <v>1974</v>
       </c>
       <c r="B33" s="2">
-        <f>MAX(B32 + rr*B32*(1-B32/K) - C32, 1)</f>
-        <v>18309.562366454833</v>
+        <f t="shared" si="1"/>
+        <v>10475.087685860646</v>
       </c>
       <c r="C33" s="2">
         <v>132</v>
@@ -4790,12 +4790,12 @@
         <v>4.3</v>
       </c>
       <c r="E33" s="1">
-        <f>q*B33</f>
-        <v>5.4131982406971799</v>
+        <f t="shared" si="0"/>
+        <v>4.9132554534258004</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>1.239210323091297</v>
+        <f t="shared" si="2"/>
+        <v>1.7774682234450549E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4803,8 +4803,8 @@
         <v>1975</v>
       </c>
       <c r="B34" s="2">
-        <f>MAX(B33 + rr*B33*(1-B33/K) - C33, 1)</f>
-        <v>18223.861850045654</v>
+        <f t="shared" si="1"/>
+        <v>10430.832392665356</v>
       </c>
       <c r="C34" s="2">
         <v>137</v>
@@ -4813,12 +4813,12 @@
         <v>4.3</v>
       </c>
       <c r="E34" s="1">
-        <f>q*B34</f>
-        <v>5.3878609947615281</v>
+        <f t="shared" si="0"/>
+        <v>4.8924978648350894</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1834415439235419</v>
+        <f t="shared" si="2"/>
+        <v>1.6663701719687771E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -4826,8 +4826,8 @@
         <v>1976</v>
       </c>
       <c r="B35" s="2">
-        <f>MAX(B34 + rr*B34*(1-B34/K) - C34, 1)</f>
-        <v>18136.668962275613</v>
+        <f t="shared" si="1"/>
+        <v>10388.229797389868</v>
       </c>
       <c r="C35" s="2">
         <v>154</v>
@@ -4836,12 +4836,12 @@
         <v>4.2</v>
       </c>
       <c r="E35" s="1">
-        <f>q*B35</f>
-        <v>5.3620825311788689</v>
+        <f t="shared" si="0"/>
+        <v>4.8725154608834806</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3504358092710864</v>
+        <f t="shared" si="2"/>
+        <v>2.2059913323780697E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -4849,8 +4849,8 @@
         <v>1977</v>
       </c>
       <c r="B36" s="2">
-        <f>MAX(B35 + rr*B35*(1-B35/K) - C35, 1)</f>
-        <v>18036.00883543053</v>
+        <f t="shared" si="1"/>
+        <v>10334.975157394078</v>
       </c>
       <c r="C36" s="2">
         <v>191</v>
@@ -4859,12 +4859,12 @@
         <v>4.5</v>
       </c>
       <c r="E36" s="1">
-        <f>q*B36</f>
-        <v>5.3323224959229485</v>
+        <f t="shared" si="0"/>
+        <v>4.8475368012076556</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>0.69276073721940656</v>
+        <f t="shared" si="2"/>
+        <v>5.53436354921427E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -4872,8 +4872,8 @@
         <v>1978</v>
       </c>
       <c r="B37" s="2">
-        <f>MAX(B36 + rr*B36*(1-B36/K) - C36, 1)</f>
-        <v>17902.382024324324</v>
+        <f t="shared" si="1"/>
+        <v>10252.578000844178</v>
       </c>
       <c r="C37" s="2">
         <v>197</v>
@@ -4882,12 +4882,12 @@
         <v>5.5</v>
       </c>
       <c r="E37" s="1">
-        <f>q*B37</f>
-        <v>5.2928159034488793</v>
+        <f t="shared" si="0"/>
+        <v>4.8088890790208492</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>4.29252498637041E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8031654315143007E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -4895,8 +4895,8 @@
         <v>1979</v>
       </c>
       <c r="B38" s="2">
-        <f>MAX(B37 + rr*B37*(1-B37/K) - C37, 1)</f>
-        <v>17768.034803186627</v>
+        <f t="shared" si="1"/>
+        <v>10176.16811583492</v>
       </c>
       <c r="C38" s="2">
         <v>233</v>
@@ -4905,12 +4905,12 @@
         <v>4.8</v>
       </c>
       <c r="E38" s="1">
-        <f>q*B38</f>
-        <v>5.2530963226883074</v>
+        <f t="shared" si="0"/>
+        <v>4.7730496382948191</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20529627763366695</v>
+        <f t="shared" si="2"/>
+        <v>3.1702306537222332E-5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -4918,8 +4918,8 @@
         <v>1980</v>
       </c>
       <c r="B39" s="2">
-        <f>MAX(B38 + rr*B38*(1-B38/K) - C38, 1)</f>
-        <v>17602.909784091386</v>
+        <f t="shared" si="1"/>
+        <v>10074.689842743664</v>
       </c>
       <c r="C39" s="2">
         <v>236</v>
@@ -4928,12 +4928,12 @@
         <v>5</v>
       </c>
       <c r="E39" s="1">
-        <f>q*B39</f>
-        <v>5.2042773260912565</v>
+        <f t="shared" si="0"/>
+        <v>4.7254520721815689</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1729225954993537E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1893894147931251E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -4941,8 +4941,8 @@
         <v>1981</v>
       </c>
       <c r="B40" s="2">
-        <f>MAX(B39 + rr*B39*(1-B39/K) - C39, 1)</f>
-        <v>17441.085406787315</v>
+        <f t="shared" si="1"/>
+        <v>9984.4549484516519</v>
       </c>
       <c r="C40" s="2">
         <v>241</v>
@@ -4951,12 +4951,12 @@
         <v>3.6</v>
       </c>
       <c r="E40" s="1">
-        <f>q*B40</f>
-        <v>5.1564341599362198</v>
+        <f t="shared" si="0"/>
+        <v>4.6831281222763126</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4224872942163658</v>
+        <f t="shared" si="2"/>
+        <v>6.9186066271518548E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4964,8 +4964,8 @@
         <v>1982</v>
       </c>
       <c r="B41" s="2">
-        <f>MAX(B40 + rr*B40*(1-B40/K) - C40, 1)</f>
-        <v>17280.309561144248</v>
+        <f t="shared" si="1"/>
+        <v>9901.6221222720415</v>
       </c>
       <c r="C41" s="2">
         <v>251</v>
@@ -4974,12 +4974,12 @@
         <v>3.7</v>
       </c>
       <c r="E41" s="1">
-        <f>q*B41</f>
-        <v>5.1089009907996283</v>
+        <f t="shared" si="0"/>
+        <v>4.6442760527610396</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9850020018761738</v>
+        <f t="shared" si="2"/>
+        <v>5.1666510746625323E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -4987,8 +4987,8 @@
         <v>1983</v>
       </c>
       <c r="B42" s="2">
-        <f>MAX(B41 + rr*B41*(1-B41/K) - C41, 1)</f>
-        <v>17115.419372790395</v>
+        <f t="shared" si="1"/>
+        <v>9819.9558956500441</v>
       </c>
       <c r="C42" s="2">
         <v>304</v>
@@ -4997,12 +4997,12 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E42" s="1">
-        <f>q*B42</f>
-        <v>5.0601514216050854</v>
+        <f t="shared" si="0"/>
+        <v>4.6059711673658708</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="0"/>
-        <v>0.4357998994472147</v>
+        <f t="shared" si="2"/>
+        <v>2.0929710609951763E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -5010,8 +5010,8 @@
         <v>1984</v>
       </c>
       <c r="B43" s="2">
-        <f>MAX(B42 + rr*B42*(1-B42/K) - C42, 1)</f>
-        <v>16903.437405066696</v>
+        <f t="shared" si="1"/>
+        <v>9696.0946060807655</v>
       </c>
       <c r="C43" s="2">
         <v>301</v>
@@ -5020,12 +5020,12 @@
         <v>3.5</v>
       </c>
       <c r="E43" s="1">
-        <f>q*B43</f>
-        <v>4.9974792292405201</v>
+        <f t="shared" ref="E43:E74" si="3">q*B43</f>
+        <v>4.5478750277730677</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2424440420067824</v>
+        <f t="shared" si="2"/>
+        <v>6.8590105923573064E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -5033,8 +5033,8 @@
         <v>1985</v>
       </c>
       <c r="B44" s="2">
-        <f>MAX(B43 + rr*B43*(1-B43/K) - C43, 1)</f>
-        <v>16701.860504737568</v>
+        <f t="shared" ref="B44:B80" si="4">MAX(B43 + rr*B43*(1-B43/K) - C43, 1)</f>
+        <v>9591.2335971392949</v>
       </c>
       <c r="C44" s="2">
         <v>317</v>
@@ -5043,12 +5043,12 @@
         <v>3.9</v>
       </c>
       <c r="E44" s="1">
-        <f>q*B44</f>
-        <v>4.9378832814845008</v>
+        <f t="shared" si="3"/>
+        <v>4.4986908166729691</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0772017059850358</v>
+        <f t="shared" si="2"/>
+        <v>2.0394659450460557E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -5056,8 +5056,8 @@
         <v>1986</v>
       </c>
       <c r="B45" s="2">
-        <f>MAX(B44 + rr*B44*(1-B44/K) - C44, 1)</f>
-        <v>16491.126402293452</v>
+        <f t="shared" si="4"/>
+        <v>9483.5535209553454</v>
       </c>
       <c r="C45" s="2">
         <v>304</v>
@@ -5066,12 +5066,12 @@
         <v>4.3</v>
       </c>
       <c r="E45" s="1">
-        <f>q*B45</f>
-        <v>4.8755800188628138</v>
+        <f t="shared" si="3"/>
+        <v>4.4481843448035043</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="0"/>
-        <v>0.33129235811411728</v>
+        <f t="shared" si="2"/>
+        <v>1.1479206577151766E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -5079,8 +5079,8 @@
         <v>1987</v>
       </c>
       <c r="B46" s="2">
-        <f>MAX(B45 + rr*B45*(1-B45/K) - C45, 1)</f>
-        <v>16300.338753391872</v>
+        <f t="shared" si="4"/>
+        <v>9402.0605213739273</v>
       </c>
       <c r="C46" s="2">
         <v>343</v>
@@ -5089,12 +5089,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" s="1">
-        <f>q*B46</f>
-        <v>4.8191738992237703</v>
+        <f t="shared" si="3"/>
+        <v>4.4099607101555689</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="0"/>
-        <v>0.51721109732472215</v>
+        <f t="shared" si="2"/>
+        <v>5.311320429143538E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -5102,8 +5102,8 @@
         <v>1988</v>
       </c>
       <c r="B47" s="2">
-        <f>MAX(B46 + rr*B46*(1-B46/K) - C46, 1)</f>
-        <v>16076.657383297814</v>
+        <f t="shared" si="4"/>
+        <v>9291.313035188261</v>
       </c>
       <c r="C47" s="2">
         <v>337</v>
@@ -5112,12 +5112,12 @@
         <v>3.9</v>
       </c>
       <c r="E47" s="1">
-        <f>q*B47</f>
-        <v>4.7530427938026882</v>
+        <f t="shared" si="3"/>
+        <v>4.3580154943470752</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.72768200805869587</v>
+        <f t="shared" si="2"/>
+        <v>1.2329934624043203E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -5125,8 +5125,8 @@
         <v>1989</v>
       </c>
       <c r="B48" s="2">
-        <f>MAX(B47 + rr*B47*(1-B47/K) - C47, 1)</f>
-        <v>15865.913997336193</v>
+        <f t="shared" si="4"/>
+        <v>9199.4855990416654</v>
       </c>
       <c r="C48" s="2">
         <v>399</v>
@@ -5135,12 +5135,12 @@
         <v>3.4</v>
       </c>
       <c r="E48" s="1">
-        <f>q*B48</f>
-        <v>4.690736786521156</v>
+        <f t="shared" si="3"/>
+        <v>4.3149445755202702</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6660014520789606</v>
+        <f t="shared" si="2"/>
+        <v>5.6791202465267372E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -5148,8 +5148,8 @@
         <v>1990</v>
       </c>
       <c r="B49" s="2">
-        <f>MAX(B48 + rr*B48*(1-B48/K) - C48, 1)</f>
-        <v>15599.488974404156</v>
+        <f t="shared" si="4"/>
+        <v>9056.087934603247</v>
       </c>
       <c r="C49" s="2">
         <v>451</v>
@@ -5158,12 +5158,12 @@
         <v>3.8</v>
       </c>
       <c r="E49" s="1">
-        <f>q*B49</f>
-        <v>4.6119685758698896</v>
+        <f t="shared" si="3"/>
+        <v>4.2476850567516031</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="0"/>
-        <v>0.65929296820017702</v>
+        <f t="shared" si="2"/>
+        <v>1.2403961896452516E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -5171,8 +5171,8 @@
         <v>1991</v>
       </c>
       <c r="B50" s="2">
-        <f>MAX(B49 + rr*B49*(1-B49/K) - C49, 1)</f>
-        <v>15288.748562803103</v>
+        <f t="shared" si="4"/>
+        <v>8876.4641919248115</v>
       </c>
       <c r="C50" s="2">
         <v>482</v>
@@ -5181,12 +5181,12 @@
         <v>3.3</v>
       </c>
       <c r="E50" s="1">
-        <f>q*B50</f>
-        <v>4.5200985783393026</v>
+        <f t="shared" si="3"/>
+        <v>4.1634339879542663</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4886405408655878</v>
+        <f t="shared" si="2"/>
+        <v>5.4018007333207954E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -5194,8 +5194,8 @@
         <v>1992</v>
       </c>
       <c r="B51" s="2">
-        <f>MAX(B50 + rr*B50*(1-B50/K) - C50, 1)</f>
-        <v>14955.543285811664</v>
+        <f t="shared" si="4"/>
+        <v>8684.7164926413225</v>
       </c>
       <c r="C51" s="2">
         <v>480</v>
@@ -5204,12 +5204,12 @@
         <v>4</v>
       </c>
       <c r="E51" s="1">
-        <f>q*B51</f>
-        <v>4.4215868726468903</v>
+        <f t="shared" si="3"/>
+        <v>4.0734962750262769</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="0"/>
-        <v>0.17773549118818532</v>
+        <f t="shared" si="2"/>
+        <v>3.3150596292508939E-4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -5217,8 +5217,8 @@
         <v>1993</v>
       </c>
       <c r="B52" s="2">
-        <f>MAX(B51 + rr*B51*(1-B51/K) - C51, 1)</f>
-        <v>14632.978521872903</v>
+        <f t="shared" si="4"/>
+        <v>8514.0354687867657</v>
       </c>
       <c r="C52" s="2">
         <v>436</v>
@@ -5227,12 +5227,12 @@
         <v>3.5</v>
       </c>
       <c r="E52" s="1">
-        <f>q*B52</f>
-        <v>4.3262210207648559</v>
+        <f t="shared" si="3"/>
+        <v>3.9934397164180231</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="0"/>
-        <v>0.68264117515372047</v>
+        <f t="shared" si="2"/>
+        <v>1.7394965595302077E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -5240,8 +5240,8 @@
         <v>1994</v>
       </c>
       <c r="B53" s="2">
-        <f>MAX(B52 + rr*B52*(1-B52/K) - C52, 1)</f>
-        <v>14362.273924577443</v>
+        <f t="shared" si="4"/>
+        <v>8403.3851519292293</v>
       </c>
       <c r="C53" s="2">
         <v>464</v>
@@ -5250,12 +5250,12 @@
         <v>3.4</v>
       </c>
       <c r="E53" s="1">
-        <f>q*B53</f>
-        <v>4.2461875595329719</v>
+        <f t="shared" si="3"/>
+        <v>3.9415400770997375</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="0"/>
-        <v>0.71603338590836696</v>
+        <f t="shared" si="2"/>
+        <v>2.1843686532498838E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -5263,8 +5263,8 @@
         <v>1995</v>
       </c>
       <c r="B54" s="2">
-        <f>MAX(B53 + rr*B53*(1-B53/K) - C53, 1)</f>
-        <v>14069.782802814043</v>
+        <f t="shared" si="4"/>
+        <v>8274.6537121276106</v>
       </c>
       <c r="C54" s="2">
         <v>471</v>
@@ -5273,12 +5273,12 @@
         <v>3.5</v>
       </c>
       <c r="E54" s="1">
-        <f>q*B54</f>
-        <v>4.1597129407485278</v>
+        <f t="shared" si="3"/>
+        <v>3.881159632792202</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.4352211641910706</v>
+        <f t="shared" si="2"/>
+        <v>1.068556672491444E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -5286,8 +5286,8 @@
         <v>1996</v>
       </c>
       <c r="B55" s="2">
-        <f>MAX(B54 + rr*B54*(1-B54/K) - C54, 1)</f>
-        <v>13776.612398574742</v>
+        <f t="shared" si="4"/>
+        <v>8149.993115527046</v>
       </c>
       <c r="C55" s="2">
         <v>458</v>
@@ -5296,12 +5296,12 @@
         <v>4.2</v>
       </c>
       <c r="E55" s="1">
-        <f>q*B55</f>
-        <v>4.0730374929857671</v>
+        <f t="shared" si="3"/>
+        <v>3.8226885846785161</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6119478187339178E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.8605571027772032E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -5309,8 +5309,8 @@
         <v>1997</v>
       </c>
       <c r="B56" s="2">
-        <f>MAX(B55 + rr*B55*(1-B55/K) - C55, 1)</f>
-        <v>13502.367949216181</v>
+        <f t="shared" si="4"/>
+        <v>8048.5726695453141</v>
       </c>
       <c r="C56" s="2">
         <v>498</v>
@@ -5319,12 +5319,12 @@
         <v>4</v>
       </c>
       <c r="E56" s="1">
-        <f>q*B56</f>
-        <v>3.9919574791068682</v>
+        <f t="shared" si="3"/>
+        <v>3.7751181419049211</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="0"/>
-        <v>6.4682142316462233E-5</v>
+        <f t="shared" si="2"/>
+        <v>3.348090088559132E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -5332,8 +5332,8 @@
         <v>1998</v>
       </c>
       <c r="B57" s="2">
-        <f>MAX(B56 + rr*B56*(1-B56/K) - C56, 1)</f>
-        <v>13193.295820881585</v>
+        <f t="shared" si="4"/>
+        <v>7915.134468037777</v>
       </c>
       <c r="C57" s="2">
         <v>564</v>
@@ -5342,12 +5342,12 @@
         <v>2.9</v>
       </c>
       <c r="E57" s="1">
-        <f>q*B57</f>
-        <v>3.9005807073488157</v>
+        <f t="shared" si="3"/>
+        <v>3.7125300289541157</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0011617519186564</v>
+        <f t="shared" si="2"/>
+        <v>6.101041072931318E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -5355,8 +5355,8 @@
         <v>1999</v>
       </c>
       <c r="B58" s="2">
-        <f>MAX(B57 + rr*B57*(1-B57/K) - C57, 1)</f>
-        <v>12823.622950618468</v>
+        <f t="shared" si="4"/>
+        <v>7725.721636878905</v>
       </c>
       <c r="C58" s="2">
         <v>496</v>
@@ -5365,12 +5365,12 @@
         <v>2.4</v>
       </c>
       <c r="E58" s="1">
-        <f>q*B58</f>
-        <v>3.7912874052539474</v>
+        <f t="shared" si="3"/>
+        <v>3.6236874671017385</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9356806440182619</v>
+        <f t="shared" si="2"/>
+        <v>0.1697632882008081</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -5378,8 +5378,8 @@
         <v>2000</v>
       </c>
       <c r="B59" s="2">
-        <f>MAX(B58 + rr*B58*(1-B58/K) - C58, 1)</f>
-        <v>12527.80964562454</v>
+        <f t="shared" si="4"/>
+        <v>7617.6092050946982</v>
       </c>
       <c r="C59" s="2">
         <v>533</v>
@@ -5388,12 +5388,12 @@
         <v>3.5</v>
       </c>
       <c r="E59" s="1">
-        <f>q*B59</f>
-        <v>3.7038305873290307</v>
+        <f t="shared" si="3"/>
+        <v>3.572978202322612</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1546908330897608E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.2586553928110788E-4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -5401,8 +5401,8 @@
         <v>2001</v>
       </c>
       <c r="B60" s="2">
-        <f>MAX(B59 + rr*B59*(1-B59/K) - C59, 1)</f>
-        <v>12199.215739500714</v>
+        <f t="shared" si="4"/>
+        <v>7479.598932672302</v>
       </c>
       <c r="C60" s="2">
         <v>536</v>
@@ -5411,12 +5411,12 @@
         <v>2.7</v>
       </c>
       <c r="E60" s="1">
-        <f>q*B60</f>
-        <v>3.6066822274210861</v>
+        <f t="shared" si="3"/>
+        <v>3.5082455963585208</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="0"/>
-        <v>0.82207266152126179</v>
+        <f t="shared" si="2"/>
+        <v>6.8572916544609633E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -5424,8 +5424,8 @@
         <v>2002</v>
       </c>
       <c r="B61" s="2">
-        <f>MAX(B60 + rr*B60*(1-B60/K) - C60, 1)</f>
-        <v>11871.819530806522</v>
+        <f t="shared" si="4"/>
+        <v>7347.1380741879502</v>
       </c>
       <c r="C61" s="2">
         <v>527</v>
@@ -5434,12 +5434,12 @@
         <v>2.4</v>
       </c>
       <c r="E61" s="1">
-        <f>q*B61</f>
-        <v>3.5098879651965937</v>
+        <f t="shared" si="3"/>
+        <v>3.4461158982756896</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2318512952882354</v>
+        <f t="shared" si="2"/>
+        <v>0.13088406863433907</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -5447,8 +5447,8 @@
         <v>2003</v>
       </c>
       <c r="B62" s="2">
-        <f>MAX(B61 + rr*B61*(1-B61/K) - C61, 1)</f>
-        <v>11557.093570194025</v>
+        <f t="shared" si="4"/>
+        <v>7231.3377618145796</v>
       </c>
       <c r="C62" s="2">
         <v>605</v>
@@ -5457,12 +5457,12 @@
         <v>2.6</v>
       </c>
       <c r="E62" s="1">
-        <f>q*B62</f>
-        <v>3.416839645297336</v>
+        <f t="shared" si="3"/>
+        <v>3.3918006950679058</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6672270061294775</v>
+        <f t="shared" si="2"/>
+        <v>7.0675964001348235E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -5470,8 +5470,8 @@
         <v>2004</v>
       </c>
       <c r="B63" s="2">
-        <f>MAX(B62 + rr*B62*(1-B62/K) - C62, 1)</f>
-        <v>11167.413898068056</v>
+        <f t="shared" si="4"/>
+        <v>7043.7970709068886</v>
       </c>
       <c r="C63" s="2">
         <v>627</v>
@@ -5480,12 +5480,12 @@
         <v>2.8</v>
       </c>
       <c r="E63" s="1">
-        <f>q*B63</f>
-        <v>3.3016313583176085</v>
+        <f t="shared" si="3"/>
+        <v>3.3038362455115347</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25163401964756904</v>
+        <f t="shared" si="2"/>
+        <v>2.7378624776960975E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -5493,8 +5493,8 @@
         <v>2005</v>
       </c>
       <c r="B64" s="2">
-        <f>MAX(B63 + rr*B63*(1-B63/K) - C63, 1)</f>
-        <v>10758.851434810453</v>
+        <f t="shared" si="4"/>
+        <v>6843.5284039217595</v>
       </c>
       <c r="C64" s="2">
         <v>569</v>
@@ -5503,12 +5503,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E64" s="1">
-        <f>q*B64</f>
-        <v>3.180840398760163</v>
+        <f t="shared" si="3"/>
+        <v>3.2099018413591787</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96204788783999517</v>
+        <f t="shared" si="2"/>
+        <v>0.14271999304464578</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -5516,8 +5516,8 @@
         <v>2006</v>
       </c>
       <c r="B65" s="2">
-        <f>MAX(B64 + rr*B64*(1-B64/K) - C64, 1)</f>
-        <v>10410.779520078026</v>
+        <f t="shared" si="4"/>
+        <v>6709.9793669627361</v>
       </c>
       <c r="C65" s="2">
         <v>549</v>
@@ -5526,12 +5526,12 @@
         <v>2.4</v>
       </c>
       <c r="E65" s="1">
-        <f>q*B65</f>
-        <v>3.0779333910035112</v>
+        <f t="shared" si="3"/>
+        <v>3.1472617419331494</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="0"/>
-        <v>0.45959368263751965</v>
+        <f t="shared" si="2"/>
+        <v>7.3475718746089463E-2</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -5539,8 +5539,8 @@
         <v>2007</v>
       </c>
       <c r="B66" s="2">
-        <f>MAX(B65 + rr*B65*(1-B65/K) - C65, 1)</f>
-        <v>10084.201380447192</v>
+        <f t="shared" si="4"/>
+        <v>6601.5667228585162</v>
       </c>
       <c r="C66" s="2">
         <v>578</v>
@@ -5549,12 +5549,12 @@
         <v>2.4</v>
       </c>
       <c r="E66" s="1">
-        <f>q*B66</f>
-        <v>2.98138098983096</v>
+        <f t="shared" si="3"/>
+        <v>3.0964116649849291</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="0"/>
-        <v>0.33800385533682692</v>
+        <f t="shared" si="2"/>
+        <v>6.4910390438664423E-2</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -5562,8 +5562,8 @@
         <v>2008</v>
       </c>
       <c r="B67" s="2">
-        <f>MAX(B66 + rr*B66*(1-B66/K) - C66, 1)</f>
-        <v>9729.4993725799777</v>
+        <f t="shared" si="4"/>
+        <v>6467.9246001685569</v>
       </c>
       <c r="C67" s="2">
         <v>644</v>
@@ -5572,12 +5572,12 @@
         <v>2.4</v>
       </c>
       <c r="E67" s="1">
-        <f>q*B67</f>
-        <v>2.8765138036836633</v>
+        <f t="shared" si="3"/>
+        <v>3.0337279044470438</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="0"/>
-        <v>0.22706540510107287</v>
+        <f t="shared" si="2"/>
+        <v>5.4907482702169289E-2</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -5585,8 +5585,8 @@
         <v>2009</v>
       </c>
       <c r="B68" s="2">
-        <f>MAX(B67 + rr*B67*(1-B67/K) - C67, 1)</f>
-        <v>9309.1726909665867</v>
+        <f t="shared" si="4"/>
+        <v>6272.4382878222441</v>
       </c>
       <c r="C68" s="2">
         <v>571</v>
@@ -5595,12 +5595,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E68" s="1">
-        <f>q*B68</f>
-        <v>2.7522447683081199</v>
+        <f t="shared" si="3"/>
+        <v>2.9420366251938801</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20452533046206522</v>
+        <f t="shared" si="2"/>
+        <v>6.0610967766466108E-2</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -5608,8 +5608,8 @@
         <v>2010</v>
       </c>
       <c r="B69" s="2">
-        <f>MAX(B68 + rr*B68*(1-B68/K) - C68, 1)</f>
-        <v>8961.5139385076418</v>
+        <f t="shared" si="4"/>
+        <v>6155.0520120122073</v>
       </c>
       <c r="C69" s="2">
         <v>584</v>
@@ -5618,12 +5618,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E69" s="1">
-        <f>q*B69</f>
-        <v>2.649459911438921</v>
+        <f t="shared" si="3"/>
+        <v>2.8869775386184515</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="0"/>
-        <v>0.12212222970289864</v>
+        <f t="shared" si="2"/>
+        <v>5.1665743480303464E-2</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -5631,8 +5631,8 @@
         <v>2011</v>
       </c>
       <c r="B70" s="2">
-        <f>MAX(B69 + rr*B69*(1-B69/K) - C69, 1)</f>
-        <v>8599.9438298164969</v>
+        <f t="shared" si="4"/>
+        <v>6027.1694337304953</v>
       </c>
       <c r="C70" s="2">
         <v>549</v>
@@ -5641,12 +5641,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E70" s="1">
-        <f>q*B70</f>
-        <v>2.5425621802380105</v>
+        <f t="shared" si="3"/>
+        <v>2.8269952459652945</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="0"/>
-        <v>0.11734884732941907</v>
+        <f t="shared" si="2"/>
+        <v>6.2879091450641619E-2</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -5654,8 +5654,8 @@
         <v>2012</v>
       </c>
       <c r="B71" s="2">
-        <f>MAX(B70 + rr*B70*(1-B70/K) - C70, 1)</f>
-        <v>8271.8143863640908</v>
+        <f t="shared" si="4"/>
+        <v>5936.5372071391539</v>
       </c>
       <c r="C71" s="2">
         <v>650</v>
@@ -5664,12 +5664,12 @@
         <v>2</v>
       </c>
       <c r="E71" s="1">
-        <f>q*B71</f>
-        <v>2.4455511381132808</v>
+        <f t="shared" si="3"/>
+        <v>2.7844849305474009</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="0"/>
-        <v>0.19851581667403986</v>
+        <f t="shared" si="2"/>
+        <v>0.10950522139843921</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -5677,8 +5677,8 @@
         <v>2013</v>
       </c>
       <c r="B72" s="2">
-        <f>MAX(B71 + rr*B71*(1-B71/K) - C71, 1)</f>
-        <v>7840.7301540072367</v>
+        <f t="shared" si="4"/>
+        <v>5746.1985179541589</v>
       </c>
       <c r="C72" s="2">
         <v>606</v>
@@ -5687,12 +5687,12 @@
         <v>1.9</v>
       </c>
       <c r="E72" s="1">
-        <f>q*B72</f>
-        <v>2.3181016468866784</v>
+        <f t="shared" si="3"/>
+        <v>2.6952081024499703</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="0"/>
-        <v>0.17480898712935281</v>
+        <f t="shared" si="2"/>
+        <v>0.12223521646672569</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -5700,8 +5700,8 @@
         <v>2014</v>
       </c>
       <c r="B73" s="2">
-        <f>MAX(B72 + rr*B72*(1-B72/K) - C72, 1)</f>
-        <v>7450.297331095584</v>
+        <f t="shared" si="4"/>
+        <v>5601.7627378884654</v>
       </c>
       <c r="C73" s="2">
         <v>656</v>
@@ -5710,12 +5710,12 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="1">
-        <f>q*B73</f>
-        <v>2.2026706918591601</v>
+        <f t="shared" si="3"/>
+        <v>2.6274616639131865</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="0"/>
-        <v>8.8404717479510536E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.4728244014917602E-3</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
@@ -5723,8 +5723,8 @@
         <v>2015</v>
       </c>
       <c r="B74" s="2">
-        <f>MAX(B73 + rr*B73*(1-B73/K) - C73, 1)</f>
-        <v>7006.0668197028872</v>
+        <f t="shared" si="4"/>
+        <v>5408.0352704157867</v>
       </c>
       <c r="C74" s="2">
         <v>622</v>
@@ -5733,12 +5733,12 @@
         <v>2.6</v>
       </c>
       <c r="E74" s="1">
-        <f>q*B74</f>
-        <v>2.0713345203764026</v>
+        <f t="shared" si="3"/>
+        <v>2.5365953566723127</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="0"/>
-        <v>0.27948718934564831</v>
+        <f t="shared" si="2"/>
+        <v>6.0953061943455383E-4</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
@@ -5746,8 +5746,8 @@
         <v>2016</v>
       </c>
       <c r="B75" s="2">
-        <f>MAX(B74 + rr*B74*(1-B74/K) - C74, 1)</f>
-        <v>6590.6311476643223</v>
+        <f t="shared" si="4"/>
+        <v>5248.2611038387959</v>
       </c>
       <c r="C75" s="2">
         <v>677</v>
@@ -5756,12 +5756,12 @@
         <v>2.6</v>
       </c>
       <c r="E75" s="1">
-        <f>q*B75</f>
-        <v>1.9485115056045079</v>
+        <f t="shared" ref="E75:E80" si="5">q*B75</f>
+        <v>2.4616545715645586</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="0"/>
-        <v>0.42443725832970525</v>
+        <f t="shared" si="2"/>
+        <v>2.9896542786375714E-3</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
@@ -5769,8 +5769,8 @@
         <v>2017</v>
       </c>
       <c r="B76" s="2">
-        <f>MAX(B75 + rr*B75*(1-B75/K) - C75, 1)</f>
-        <v>6114.4760653906014</v>
+        <f t="shared" si="4"/>
+        <v>5032.5890900045897</v>
       </c>
       <c r="C76" s="2">
         <v>719</v>
@@ -5779,12 +5779,12 @@
         <v>2.9</v>
       </c>
       <c r="E76" s="1">
-        <f>q*B76</f>
-        <v>1.8077368763656663</v>
+        <f t="shared" si="5"/>
+        <v>2.3604953517183551</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" ref="F76:F80" si="1">(D76-E76)^2</f>
-        <v>1.1930387312514317</v>
+        <f t="shared" ref="F76:F80" si="6">(LN(D76)-LN(E76))^2</f>
+        <v>4.2369794857847698E-2</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
@@ -5792,8 +5792,8 @@
         <v>2018</v>
       </c>
       <c r="B77" s="2">
-        <f>MAX(B76 + rr*B76*(1-B76/K) - C76, 1)</f>
-        <v>5588.7532626574266</v>
+        <f t="shared" si="4"/>
+        <v>4772.4731287759687</v>
       </c>
       <c r="C77" s="2">
         <v>707</v>
@@ -5802,12 +5802,12 @@
         <v>2.5</v>
       </c>
       <c r="E77" s="1">
-        <f>q*B77</f>
-        <v>1.6523076152019198</v>
+        <f t="shared" si="5"/>
+        <v>2.2384900565498294</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7185823792446564</v>
+        <f t="shared" si="6"/>
+        <v>1.2207857836366558E-2</v>
       </c>
       <c r="M77" s="3"/>
     </row>
@@ -5816,8 +5816,8 @@
         <v>2019</v>
       </c>
       <c r="B78" s="2">
-        <f>MAX(B77 + rr*B77*(1-B77/K) - C77, 1)</f>
-        <v>5065.418918651515</v>
+        <f t="shared" si="4"/>
+        <v>4519.5266192126956</v>
       </c>
       <c r="C78" s="2">
         <v>705</v>
@@ -5826,12 +5826,12 @@
         <v>3.1</v>
       </c>
       <c r="E78" s="1">
-        <f>q*B78</f>
-        <v>1.4975844987466937</v>
+        <f t="shared" si="5"/>
+        <v>2.1198475349016048</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5677354386568849</v>
+        <f t="shared" si="6"/>
+        <v>0.1444440399557623</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -5839,8 +5839,8 @@
         <v>2020</v>
       </c>
       <c r="B79" s="2">
-        <f>MAX(B78 + rr*B78*(1-B78/K) - C78, 1)</f>
-        <v>4533.207506911147</v>
+        <f t="shared" si="4"/>
+        <v>4261.9081797741983</v>
       </c>
       <c r="C79" s="2">
         <v>736</v>
@@ -5849,12 +5849,12 @@
         <v>2.6</v>
       </c>
       <c r="E79" s="1">
-        <f>q*B79</f>
-        <v>1.3402368887901515</v>
+        <f t="shared" si="5"/>
+        <v>1.9990136821995645</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5870030963651174</v>
+        <f t="shared" si="6"/>
+        <v>6.9094088968975259E-2</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
@@ -5862,8 +5862,8 @@
         <v>2021</v>
       </c>
       <c r="B80" s="2">
-        <f>MAX(B79 + rr*B79*(1-B79/K) - C79, 1)</f>
-        <v>3957.5948892939177</v>
+        <f t="shared" si="4"/>
+        <v>3964.4933758199004</v>
       </c>
       <c r="C80" s="2">
         <v>752</v>
@@ -5872,12 +5872,12 @@
         <v>2.7</v>
       </c>
       <c r="E80" s="1">
-        <f>q*B80</f>
-        <v>1.1700577689048302</v>
+        <f t="shared" si="5"/>
+        <v>1.8595136654664866</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3407232304884666</v>
+        <f t="shared" si="6"/>
+        <v>0.13908184907725951</v>
       </c>
     </row>
   </sheetData>
